--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_5_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_5_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009152462103323988</v>
+        <v>0.003706323675013001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0758771262575859</v>
+        <v>0.009905508549801585</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.087562862012661</v>
+        <v>4.809352232206899</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.1076456930882568, 9.067480030937066]</t>
+          <t>[1.5712018191371477, 8.04750264527665]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01245230821938303</v>
+        <v>0.003768162521081253</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02490461643876607</v>
+        <v>0.003768162521081253</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.811368737204925</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.7925268031909267, -0.8302106712189241]</t>
+          <t>[-2.4906320136567732, -0.6289474781961548]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003384577038259007</v>
+        <v>0.001111521131287763</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0006769154076518014</v>
+        <v>0.001111521131287763</v>
       </c>
       <c r="S2" t="n">
-        <v>14.4108612892638</v>
+        <v>13.59673130643606</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.148167578858398, 16.673554999669207]</t>
+          <t>[11.604952510276265, 15.588510102595853]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.492612612612788</v>
+        <v>6.106906906907007</v>
       </c>
       <c r="X2" t="n">
-        <v>3.434114114114193</v>
+        <v>2.462462462462502</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.55111111111138</v>
+        <v>9.751351351351513</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.36000000000021</v>
+        <v>24.99000000000047</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01396223306211419</v>
+        <v>0.0004315006780571951</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0758771262575859</v>
+        <v>0.004232340223790355</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.269999596492918</v>
+        <v>5.339318214720941</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.5224906523533299, 8.017508540632507]</t>
+          <t>[1.8052935063489617, 8.87334292309292]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.02568140135646013</v>
+        <v>0.00319284221458771</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02568140135646013</v>
+        <v>0.003768162521081253</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4968685077749626</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, 1.647842392873926]</t>
+          <t>[-3.421474281387082, -2.012631930227696]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.3961978690276236</v>
+        <v>4.518607710224387e-13</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3961978690276236</v>
+        <v>9.037215420448774e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>13.56340246853624</v>
+        <v>13.38596429365885</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.564314229277764, 15.562490707794721]</t>
+          <t>[11.497878553023913, 15.27405003429379]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.51271271271291</v>
+        <v>10.80648648648669</v>
       </c>
       <c r="X3" t="n">
-        <v>17.23355355355371</v>
+        <v>8.004804804804959</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.79187187187211</v>
+        <v>13.60816816816842</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_5_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_5_sawtooth_0.1_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.60000000000041</v>
+        <v>24.46000000000038</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003706323675013001</v>
+        <v>0.393309117029248</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009905508549801585</v>
+        <v>0.5443015359458789</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.809352232206899</v>
+        <v>2.172578709687491</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.5712018191371477, 8.04750264527665]</t>
+          <t>[-1.9161636085259577, 6.261321027900939]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.003768162521081253</v>
+        <v>0.2962653585505108</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003768162521081253</v>
+        <v>0.2962653585505108</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.4906320136567732, -0.6289474781961548]</t>
+          <t>[-5.0315798255692386, 1.2327370572644636]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001111521131287763</v>
+        <v>0.2334089436005338</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001111521131287763</v>
+        <v>0.2334089436005338</v>
       </c>
       <c r="S2" t="n">
-        <v>13.59673130643606</v>
+        <v>15.10327868203981</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.604952510276265, 15.588510102595853]</t>
+          <t>[12.889871771332981, 17.316685592746644]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.106906906907007</v>
+        <v>7.394314314314432</v>
       </c>
       <c r="X2" t="n">
-        <v>2.462462462462502</v>
+        <v>-4.798958958959034</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.751351351351513</v>
+        <v>19.5875875875879</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.99000000000047</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004315006780571951</v>
+        <v>0.001240652934597519</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004232340223790355</v>
+        <v>0.01297967520616652</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.339318214720941</v>
+        <v>4.784066025210945</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.8052935063489617, 8.87334292309292]</t>
+          <t>[1.3712013293724645, 8.196930721049426]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.00319284221458771</v>
+        <v>0.006170468450722666</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003768162521081253</v>
+        <v>0.01234093690144533</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.717053105807389</v>
+        <v>-2.754789954499158</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.421474281387082, -2.012631930227696]</t>
+          <t>[-3.5095269283345436, -2.0000529806637717]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.518607710224387e-13</v>
+        <v>5.917488721252084e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>9.037215420448774e-13</v>
+        <v>1.183497744250417e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>13.38596429365885</v>
+        <v>13.36856082596215</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.497878553023913, 15.27405003429379]</t>
+          <t>[11.547500207555272, 15.189621444369036]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.80648648648669</v>
+        <v>10.89519519519539</v>
       </c>
       <c r="X3" t="n">
-        <v>8.004804804804959</v>
+        <v>7.91021021021035</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.60816816816842</v>
+        <v>13.88018018018043</v>
       </c>
     </row>
   </sheetData>
